--- a/src/BE-NL/L02F/L02F_mapping.xlsx
+++ b/src/BE-NL/L02F/L02F_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\sample files\L02F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\HTML-Generator\input files\L02G\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Social_Site_Link3</t>
   </si>
   <si>
-    <t>SEO1_Image</t>
-  </si>
-  <si>
     <t>SEO1_Image_AltTag</t>
   </si>
   <si>
@@ -267,15 +264,6 @@
   </si>
   <si>
     <t>Hotel_Details_MB_Text</t>
-  </si>
-  <si>
-    <t>Hotel_Details_MB_Filter</t>
-  </si>
-  <si>
-    <t>CB_Details_MB_Header</t>
-  </si>
-  <si>
-    <t>CB_Details_MB_Filter</t>
   </si>
   <si>
     <t>img_VP_Image</t>
@@ -329,15 +317,6 @@
     <t>div_Hotel_Details_MB_Text</t>
   </si>
   <si>
-    <t>div_Hotel_Details_MB_Filter</t>
-  </si>
-  <si>
-    <t>div_CB_Details_MB_Header</t>
-  </si>
-  <si>
-    <t>div_CB_Details_MB_Filter</t>
-  </si>
-  <si>
     <t>TN_Section</t>
   </si>
   <si>
@@ -355,12 +334,39 @@
   <si>
     <t>div_API_CityName</t>
   </si>
+  <si>
+    <t>OG_Meta_Desc</t>
+  </si>
+  <si>
+    <t>OG_Meta_Image</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>h_cat</t>
+  </si>
+  <si>
+    <t>hotel_cat</t>
+  </si>
+  <si>
+    <t>LP_URL</t>
+  </si>
+  <si>
+    <t>m_Meta_Url</t>
+  </si>
+  <si>
+    <t>div_SEO1_Player</t>
+  </si>
+  <si>
+    <t>SEO1_Player</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +418,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +439,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -489,13 +508,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -533,6 +565,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16380"/>
+  <dimension ref="A1:D16379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,44 +911,44 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
+      <c r="A2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
+      <c r="C2" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
+      <c r="A3" s="15" t="s">
+        <v>90</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
+      <c r="A4" s="7" t="s">
+        <v>38</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>31</v>
@@ -924,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -935,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>31</v>
@@ -943,98 +978,98 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>42</v>
+      <c r="A15" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>33</v>
@@ -1042,10 +1077,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>32</v>
@@ -1053,10 +1088,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>33</v>
@@ -1064,43 +1099,43 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -1108,43 +1143,43 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>47</v>
+      <c r="A24" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>33</v>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>48</v>
+      <c r="A25" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>34</v>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
@@ -1152,54 +1187,54 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>89</v>
+      <c r="B30" s="2" t="s">
+        <v>82</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -1207,10 +1242,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
@@ -1218,10 +1253,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
@@ -1229,7 +1264,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>74</v>
@@ -1240,7 +1275,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>75</v>
@@ -1251,10 +1286,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
@@ -1262,21 +1297,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>59</v>
+      <c r="A38" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
@@ -1284,65 +1319,65 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>87</v>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>60</v>
+      <c r="A40" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>61</v>
+      <c r="A41" s="9" t="s">
+        <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
+      <c r="B41" s="13" t="s">
+        <v>80</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>82</v>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>83</v>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>64</v>
+      <c r="A44" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>84</v>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>35</v>
@@ -1350,25 +1385,17 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="11"/>
@@ -50353,9 +50380,6 @@
     </row>
     <row r="16379" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16379" s="11"/>
-    </row>
-    <row r="16380" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D16380" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
